--- a/ЛР6/Лаб6.xlsx
+++ b/ЛР6/Лаб6.xlsx
@@ -54,9 +54,6 @@
     <t>Заменить продажу приложения на платную подписку с расширенным функционалом, а бесплатное сделать с рекламой</t>
   </si>
   <si>
-    <t>Изменить расположение кнопок для навигации в приложении, главным экраном будет последний открытый биржевой инструмент</t>
-  </si>
-  <si>
     <t>Вместо попыток предугадать изменение цены на актив предоставлять пользователю информацию о наименьшей цене актива за период N-дней</t>
   </si>
   <si>
@@ -78,7 +75,10 @@
     <t>Добавить возможность построить графики по основным техническим показателям (график изменения EBITDA, P/E, P/S денежного потока, Book Value), добавить возможность мониторинга цен с разных бирж</t>
   </si>
   <si>
-    <t>Можно добавить элементы игры и рейтинга для большего вовлечения людей, добавить карточки с основной информацией об активе</t>
+    <t>Изменить расположение кнопок для навигации в приложении, главным экраном будет последний открытый биржевой инструмент, модульный интерфейс</t>
+  </si>
+  <si>
+    <t>Можно добавить элементы игры и рейтинга для большего вовлечения людей, добавить карточки с основной информацией об активе, обучение новичков</t>
   </si>
 </sst>
 </file>
@@ -118,9 +118,6 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -128,6 +125,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -432,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,89 +443,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
+    <row r="9" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
+    <row r="10" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
+    <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/ЛР6/Лаб6.xlsx
+++ b/ЛР6/Лаб6.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kroto\Desktop\Magistr\System-analysis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4866030F-59DE-4822-84B0-7AC1AAB9480F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -84,7 +90,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -139,14 +145,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -184,7 +193,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -256,7 +265,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -429,11 +438,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,7 +546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -549,7 +558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
